--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ АЭХК ОПРО_LAR (Средний LAR(Det))(01.09.2015 23-55-50).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ АЭХК ОПРО_LAR (Средний LAR(Det))(01.09.2015 23-55-50).xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ОРПО (Средний LAR(Det))\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,13 +157,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -231,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +442,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -484,22 +485,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>8.2150685029383578E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>9.7929289267071671E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1.8007997429645524E-4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>1.9881449823482597E-4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1.9292608408383452E-4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>3.9174058231866048E-4</v>
       </c>
     </row>
@@ -507,22 +508,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>4.9650731280960734E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>6.753971464413695E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1.1719044592509769E-4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1.3102739794350178E-4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>1.9112494065488648E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>3.2215233859838829E-4</v>
       </c>
     </row>
@@ -530,22 +531,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>4.6311483003067356E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>6.6964830088786788E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>1.1327631309185414E-4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1.4371639581124961E-4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>2.0360366030137272E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>3.4732005611262234E-4</v>
       </c>
     </row>
@@ -553,22 +554,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>3.6176074995861816E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>5.8901866279310029E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>9.5077941275171845E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1.2115158038980598E-4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>2.0210683116842604E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>3.2325841155823203E-4</v>
       </c>
     </row>
@@ -576,22 +577,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>3.0131949064554325E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>5.7662790383289543E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>8.7794739447843865E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>9.2130524241393691E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>2.0390899006907055E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.9603951431046423E-4</v>
       </c>
     </row>
@@ -599,22 +600,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>2.5248496605443799E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>6.09954419570616E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>8.6243938562505392E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>8.2972712768665248E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>2.0086954369932377E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>2.8384225646798901E-4</v>
       </c>
     </row>
@@ -622,22 +623,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.8574421134612316E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>5.0764902805432115E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>6.9339323940044434E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>6.4977532895441341E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>1.8411967612576671E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>2.4909720902120805E-4</v>
       </c>
     </row>
@@ -645,22 +646,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>2.5574730385355264E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>4.8292295466378412E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>7.386702585173368E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>6.9279088033297163E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>1.2176551793168842E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1.9104460596498557E-4</v>
       </c>
     </row>
@@ -668,22 +669,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>8.716070067299712E-5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>5.6754169425889451E-6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>9.283611761558607E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>9.4963411100732441E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>5.6754169425889451E-6</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>1.0063882804332139E-4</v>
       </c>
     </row>
@@ -691,22 +692,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -714,22 +715,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -737,35 +738,38 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>3.8529999999999999E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>6.2730000000000004E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>1.0126E-4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>1.1678E-4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>1.9764000000000001E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>3.1442999999999998E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -796,22 +800,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>0</v>
       </c>
     </row>
@@ -819,22 +823,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>4.0666748979777023E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>3.2775671423214516E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>7.3442420402991532E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>6.7991543691434342E-5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>4.0916287937174645E-5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>1.0890783162860899E-4</v>
       </c>
     </row>
@@ -842,22 +846,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>3.7483536938906911E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>8.1061279017710102E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>1.1854481595661702E-4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>6.3553373115366856E-5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1.5737224852495043E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.2092562164031728E-4</v>
       </c>
     </row>
@@ -865,22 +869,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>4.071457584919222E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>8.2104114378318447E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>1.2281869022751066E-4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>6.543685599655409E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.6776159316989465E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2.3319844916644874E-4</v>
       </c>
     </row>
@@ -888,22 +892,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>3.5872840370867327E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>4.8210529791447726E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>8.4083370162315053E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>6.251354995640457E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>7.4474184973000098E-5</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>1.3698773492940467E-4</v>
       </c>
     </row>
@@ -911,22 +915,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1.962766716684431E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>7.3686330991512463E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>9.3313998158356769E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>2.5774134092018055E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1.334813238609019E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>1.5925545795291996E-4</v>
       </c>
     </row>
@@ -934,22 +938,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>8.2189184420692661E-6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>2.8620095635736178E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>3.683901407780544E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>8.2189184420692661E-6</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>2.8620095635736178E-5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>3.683901407780544E-5</v>
       </c>
     </row>
@@ -957,22 +961,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -980,22 +984,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1003,22 +1007,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1026,22 +1030,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1049,22 +1053,22 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>3.5580000000000002E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>6.1799999999999998E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>9.7380000000000006E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>5.9339999999999998E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>1.1046E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>1.6979000000000001E-4</v>
       </c>
     </row>
